--- a/Benchmark/YNQ_Benchmark/size.xlsx
+++ b/Benchmark/YNQ_Benchmark/size.xlsx
@@ -409,7 +409,7 @@
     <t>Is the second largest apple green?</t>
   </si>
   <si>
-    <t>Is the 3 largest apples green and in the center of the image?</t>
+    <t>Are the 3 largest apples green and in the center of the image?</t>
   </si>
   <si>
     <t>Is one of the two largest watermelons on the left of the image?</t>
@@ -673,7 +673,7 @@
     <t>Is the largest cushion placed on the sofa on the left?</t>
   </si>
   <si>
-    <t>Is the tallest depicting a standing man?</t>
+    <t>Is the tallest statue depicting a standing man?</t>
   </si>
   <si>
     <t>Is the green potted plant shorter than the red and pink potted plant?</t>
